--- a/data/trans_dic/P16A13-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A13-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,48%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,88; 7,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>0,0; 5,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>1,92; 10,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>7,0; 22,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>2,14; 10,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0,93; 8,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>3,36; 12,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>10,26; 18,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>1,79; 6,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>1,27; 5,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>3,49; 10,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>10,09; 18,26</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,59%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,33; 1,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,22; 7,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,18; 5,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>7,03; 11,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,58; 4,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,14; 6,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,76; 6,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>10,39; 14,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,06; 2,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,69; 6,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,89; 5,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>9,28; 11,99</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,14; 4,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,7; 5,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,93; 4,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,78; 6,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,16; 4,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,93; 6,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,39; 4,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,34; 10,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,37; 4,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,64; 5,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,4; 4,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>6,01; 7,98</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,33; 5,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,54; 5,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,79; 4,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,62; 6,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,21; 6,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,41; 6,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,8; 5,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,02; 6,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,17; 5,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,3; 5,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,58; 4,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,79; 6,08</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,6; 3,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>3,17; 6,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,61; 3,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,51; 8,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,86; 5,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,88; 7,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,13; 5,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>6,4; 8,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,47; 4,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,32; 6,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,68; 4,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>6,28; 8,22</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,14; 3,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,4; 4,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,42; 3,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,63; 7,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,02; 4,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,67; 6,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,36; 4,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>7,2; 8,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,74; 3,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,23; 5,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,07; 3,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>6,72; 7,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A13-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>11,18%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,7</t>
+          <t>0,56; 2,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,89</t>
+          <t>3,16; 6,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 10,27</t>
+          <t>2,35; 5,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 22,29</t>
+          <t>7,72; 13,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 10,22</t>
+          <t>1,92; 4,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,88</t>
+          <t>3,17; 6,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 12,37</t>
+          <t>3,27; 6,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,26; 18,76</t>
+          <t>10,94; 14,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,76</t>
+          <t>1,39; 2,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,98</t>
+          <t>3,49; 5,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 10,33</t>
+          <t>3,23; 5,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 18,26</t>
+          <t>9,87; 12,99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,91</t>
+          <t>2,14; 4,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,44</t>
+          <t>2,7; 5,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,13</t>
+          <t>1,93; 4,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,25</t>
+          <t>2,28; 5,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,08</t>
+          <t>2,16; 4,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,84</t>
+          <t>3,93; 6,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,36</t>
+          <t>2,39; 4,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 14,13</t>
+          <t>7,4; 10,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,63</t>
+          <t>2,37; 4,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,44</t>
+          <t>3,64; 5,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,24</t>
+          <t>2,4; 4,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 11,99</t>
+          <t>4,32; 7,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,35</t>
+          <t>2,33; 5,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,42</t>
+          <t>2,54; 5,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,1</t>
+          <t>1,79; 4,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,4</t>
+          <t>3,52; 6,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,26</t>
+          <t>3,21; 6,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,89</t>
+          <t>3,41; 6,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,79</t>
+          <t>2,8; 5,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,16</t>
+          <t>1,99; 5,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,03</t>
+          <t>3,17; 5,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,58</t>
+          <t>3,3; 5,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,05</t>
+          <t>2,58; 4,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,01; 7,98</t>
+          <t>2,9; 5,69</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,23</t>
+          <t>1,6; 3,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,27</t>
+          <t>3,17; 6,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,68</t>
+          <t>1,61; 3,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,76</t>
+          <t>5,42; 8,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,43</t>
+          <t>2,86; 5,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,81</t>
+          <t>4,88; 7,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,82</t>
+          <t>3,13; 5,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,32</t>
+          <t>5,78; 8,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,24</t>
+          <t>2,47; 4,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,39</t>
+          <t>4,32; 6,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,68</t>
+          <t>2,68; 4,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,08</t>
+          <t>5,97; 8,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,7</t>
+          <t>2,14; 3,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,11</t>
+          <t>3,4; 4,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,7</t>
+          <t>2,42; 3,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,47</t>
+          <t>4,68; 7,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,18</t>
+          <t>3,02; 4,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,88</t>
+          <t>4,67; 6,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,93</t>
+          <t>3,36; 4,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,85</t>
+          <t>6,3; 8,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,11</t>
+          <t>2,74; 3,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,61</t>
+          <t>4,23; 5,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,52</t>
+          <t>3,07; 3,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,22</t>
+          <t>5,98; 7,61</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,11%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,94%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,06%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,2%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,13%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>3,51%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>7,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 3,24</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 4,85</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 3,64</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,63; 7,35</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 4,23</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 6,22</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 4,83</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 8,9</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 3,6</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 5,29</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 3,99</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 7,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A13-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,18</t>
+          <t>0,57; 2,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,9</t>
+          <t>3,11; 6,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,3</t>
+          <t>2,39; 5,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 13,2</t>
+          <t>7,76; 12,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,41</t>
+          <t>1,92; 4,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,54</t>
+          <t>3,15; 6,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,67</t>
+          <t>3,23; 6,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,94; 14,39</t>
+          <t>11,0; 14,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,86</t>
+          <t>1,39; 2,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,88</t>
+          <t>3,48; 5,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,45</t>
+          <t>3,29; 5,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,87; 12,99</t>
+          <t>9,96; 12,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,35</t>
+          <t>2,22; 4,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,42</t>
+          <t>2,72; 5,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,1</t>
+          <t>1,85; 4,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,63</t>
+          <t>2,12; 5,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,26</t>
+          <t>2,05; 4,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,89</t>
+          <t>3,92; 6,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,79</t>
+          <t>2,37; 4,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 10,23</t>
+          <t>7,61; 10,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,03</t>
+          <t>2,45; 4,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,58</t>
+          <t>3,66; 5,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,05</t>
+          <t>2,37; 3,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,47</t>
+          <t>4,16; 7,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,23</t>
+          <t>2,47; 5,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,27</t>
+          <t>2,41; 5,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,68</t>
+          <t>1,76; 4,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,62</t>
+          <t>3,61; 6,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,43</t>
+          <t>3,2; 6,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,81</t>
+          <t>3,49; 6,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,82</t>
+          <t>2,64; 5,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,76</t>
+          <t>2,22; 5,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,24</t>
+          <t>3,19; 5,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,39</t>
+          <t>3,34; 5,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,68</t>
+          <t>2,61; 4,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,69</t>
+          <t>2,88; 5,63</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,7</t>
+          <t>1,57; 3,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,11</t>
+          <t>3,09; 6,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,7</t>
+          <t>1,68; 3,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,3</t>
+          <t>5,34; 8,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,18</t>
+          <t>2,83; 5,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,88</t>
+          <t>4,81; 7,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,93</t>
+          <t>3,11; 5,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 8,59</t>
+          <t>5,62; 8,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,11</t>
+          <t>2,42; 4,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,61</t>
+          <t>4,45; 6,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,52</t>
+          <t>2,67; 4,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 8,05</t>
+          <t>5,99; 8,07</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,24</t>
+          <t>2,16; 3,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,4; 4,85</t>
+          <t>3,34; 4,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,64</t>
+          <t>2,39; 3,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 7,0</t>
+          <t>4,74; 6,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,23</t>
+          <t>3,02; 4,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,22</t>
+          <t>4,62; 6,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,83</t>
+          <t>3,38; 4,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,68</t>
+          <t>6,32; 8,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,6</t>
+          <t>2,69; 3,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 5,29</t>
+          <t>4,24; 5,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,99</t>
+          <t>3,08; 3,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,61</t>
+          <t>6,05; 7,63</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8027</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31717</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24874</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>62083</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20266</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32385</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31802</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>84501</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28293</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>64102</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>56676</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>146584</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3924; 15959</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21694; 45398</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16095; 37075</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>49307; 82084</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13238; 30264</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21837; 45218</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21725; 43777</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>74364; 95256</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19165; 40189</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>48455; 82041</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>44300; 72833</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>130615; 169908</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>30431</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39123</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29091</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48443</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29907</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>54026</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35540</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>84810</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>60337</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>93149</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>64631</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>133253</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21362; 43989</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>27684; 54387</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18872; 41310</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25254; 67213</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19838; 42026</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>40269; 71117</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24710; 50348</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>72912; 97866</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>47203; 77673</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>74857; 112844</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>49022; 82104</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>89429; 158823</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24886</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22003</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>34644</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31237</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>37945</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31402</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38310</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>56122</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>65435</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>53404</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>72954</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16771; 36593</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18266; 39204</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13359; 34197</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25378; 45961</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21911; 43488</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27109; 50979</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20744; 45091</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20686; 54170</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43416; 71890</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>51189; 83627</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40388; 70891</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>47118; 92190</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23252</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41933</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>23802</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>62956</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>40062</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>65740</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44994</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>78890</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>63315</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>107673</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>68796</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>141845</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14777; 34287</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29165; 59401</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15727; 37132</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>49534; 77556</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>29355; 54907</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50454; 83194</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32452; 61973</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>61300; 93474</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>47880; 79214</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>88744; 133185</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>52954; 86711</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>120845; 162822</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>86595</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>140263</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>99770</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>208125</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>121472</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>190095</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>143737</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>286511</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>208067</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>330359</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>243507</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>494636</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>70617; 108614</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>114170; 166447</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>81052; 122688</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>164059; 241010</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>101921; 142388</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>163853; 220822</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>119777; 171144</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>231207; 317937</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>178837; 234861</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>295469; 369878</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>213981; 276229</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>430868; 543050</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>